--- a/src/test/java/IdentityServer_API_User/Data/IdentityServer_API_User.xlsx
+++ b/src/test/java/IdentityServer_API_User/Data/IdentityServer_API_User.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajmal.syed.LOGICIELSERVICE\eclipse-workspace\OMS_API\src\test\java\IdentityServer_API_User\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APIAutomation\Automation_OMSAPI\src\test\java\IdentityServer_API_User\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D26C0C-0CDE-4EDB-AF64-D90CAD5EAA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AC41E1-7BD0-4A56-BF0E-E246422EEAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="685" activeTab="6" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="685" firstSheet="2" activeTab="6" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="UserLogin" sheetId="2" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>123456</t>
   </si>
   <si>
-    <t>qatest27@mailinator.com</t>
-  </si>
-  <si>
     <t>Forgot_Password_BasePath</t>
   </si>
   <si>
@@ -319,13 +316,16 @@
   </si>
   <si>
     <t>first004</t>
+  </si>
+  <si>
+    <t>api.automation@mailinator.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +358,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -399,7 +405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -416,6 +422,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -435,9 +442,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -475,7 +482,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -581,7 +588,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -723,7 +730,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -734,7 +741,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +759,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -781,16 +788,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
+      <c r="C2" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1</v>
@@ -809,9 +816,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{01F604ED-0619-47BE-A47E-103A5466724C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -838,48 +842,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -908,42 +912,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -973,33 +977,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1</v>
@@ -1008,13 +1012,13 @@
         <v>11</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1049,31 +1053,31 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="G1" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>2</v>
@@ -1096,10 +1100,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1</v>
@@ -1108,25 +1112,25 @@
         <v>11</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L2" s="5">
         <v>202</v>
@@ -1172,40 +1176,40 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="G1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="I1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="K1" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>2</v>
@@ -1226,66 +1230,66 @@
         <v>8</v>
       </c>
       <c r="S1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="V1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O2" s="5">
         <v>202</v>
@@ -1300,22 +1304,22 @@
         <v>200</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1336,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,7 +1359,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1382,27 +1386,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
@@ -1411,10 +1415,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="F2" s="5">
         <v>202</v>
@@ -1429,27 +1433,27 @@
         <v>200</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L2" s="6">
         <v>200</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="O2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -1458,10 +1462,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="F3" s="5">
         <v>202</v>
@@ -1476,27 +1480,27 @@
         <v>200</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L3" s="6">
         <v>200</v>
       </c>
       <c r="M3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -1505,10 +1509,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4" s="5">
         <v>202</v>
@@ -1523,22 +1527,22 @@
         <v>200</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L4" s="6">
         <v>200</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1581,7 +1585,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1607,13 +1611,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>

--- a/src/test/java/IdentityServer_API_User/Data/IdentityServer_API_User.xlsx
+++ b/src/test/java/IdentityServer_API_User/Data/IdentityServer_API_User.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APIAutomation\Automation_OMSAPI\src\test\java\IdentityServer_API_User\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AC41E1-7BD0-4A56-BF0E-E246422EEAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655C5BBD-22A6-4B8B-9D8E-A3655C991AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="685" firstSheet="2" activeTab="6" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="685" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="UserLogin" sheetId="2" r:id="rId1"/>
-    <sheet name="Forgot_Password" sheetId="3" r:id="rId2"/>
-    <sheet name="Forgot_Password_Resend" sheetId="6" r:id="rId3"/>
-    <sheet name="Forgot_Password_Verify" sheetId="4" r:id="rId4"/>
-    <sheet name="Forgot_Password_Confirm" sheetId="5" r:id="rId5"/>
-    <sheet name="UserProfile_ChangePassword" sheetId="8" r:id="rId6"/>
-    <sheet name="UserProfile_Detail" sheetId="9" r:id="rId7"/>
-    <sheet name="Dummy_UserProfile_UserLogin" sheetId="7" r:id="rId8"/>
+    <sheet name="UserLoginNegativeCases" sheetId="10" r:id="rId2"/>
+    <sheet name="Forgot_Password" sheetId="3" r:id="rId3"/>
+    <sheet name="Forgot_Password_Resend" sheetId="6" r:id="rId4"/>
+    <sheet name="Forgot_Password_Verify" sheetId="4" r:id="rId5"/>
+    <sheet name="Forgot_Password_Confirm" sheetId="5" r:id="rId6"/>
+    <sheet name="UserProfile_ChangePassword" sheetId="8" r:id="rId7"/>
+    <sheet name="UserProfile_Detail" sheetId="9" r:id="rId8"/>
+    <sheet name="Dummy_UserProfile_UserLogin" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="94">
   <si>
     <t>Content_Type</t>
   </si>
@@ -225,9 +226,6 @@
     <t>Login_TestCase</t>
   </si>
   <si>
-    <t>Verify_UserLogin_TC0001</t>
-  </si>
-  <si>
     <t>UserProfile_Detail_TestCase</t>
   </si>
   <si>
@@ -237,9 +235,6 @@
     <t>UserProfile_ChangePassword_TestCase</t>
   </si>
   <si>
-    <t>Verify_UserProfile_ChangePassword_TC0001</t>
-  </si>
-  <si>
     <t>UserProfile_UserLogin_TestCase</t>
   </si>
   <si>
@@ -249,25 +244,13 @@
     <t>Forgot_Password_Confirm_TestCase</t>
   </si>
   <si>
-    <t>Verify_Forgot_Password_Confirm_TC0001</t>
-  </si>
-  <si>
     <t>Forgot_Password_Verify_TestCase</t>
   </si>
   <si>
-    <t>Verify_Forgot_Password_Verify_TC0001</t>
-  </si>
-  <si>
     <t>Forgot_Password_Resend_TestCase</t>
   </si>
   <si>
-    <t>Verify_Forgot_Password_Resend_TC0001</t>
-  </si>
-  <si>
     <t>Forgot_Password_TestCase</t>
-  </si>
-  <si>
-    <t>Verify_Forgot_Password_TC0001</t>
   </si>
   <si>
     <t>Forgot_NewPassword</t>
@@ -319,6 +302,33 @@
   </si>
   <si>
     <t>api.automation@mailinator.com</t>
+  </si>
+  <si>
+    <t>Verify_UserLogin_TestCase_VTRAD-C516</t>
+  </si>
+  <si>
+    <t>@Qatest27123</t>
+  </si>
+  <si>
+    <t>api.automation12@mailinator.com</t>
+  </si>
+  <si>
+    <t>Verify_Forgot_Password_Resend_TestCase_VTRAD-C417</t>
+  </si>
+  <si>
+    <t>Verify_Forgot_Password_Confirm_TestCase_VTRAD-C415</t>
+  </si>
+  <si>
+    <t>Verify_Forgot_Password_Verify_TestCase_VTRAD-C413</t>
+  </si>
+  <si>
+    <t>Verify_Forgot_Password_TestCase_VTRAD-C411</t>
+  </si>
+  <si>
+    <t>Verify_UserProfile_ChangePassword_TestCase_VTRAD-C1214</t>
+  </si>
+  <si>
+    <t>Verify_UserLogin_TestCase_Negative_VTRAD-C517</t>
   </si>
 </sst>
 </file>
@@ -405,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -423,6 +433,8 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -740,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78880E81-82BD-4163-961D-241DBB86F223}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,16 +800,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1</v>
@@ -821,28 +833,115 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C929527-ABF2-422A-A89C-7CE3CB8A5982}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="72.5703125" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>400</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="5">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{133A9785-AB89-42FA-A16A-C161F785BFFC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBBBA57-3186-41A2-9D8F-17C18B5A2950}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="42.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="52.5703125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="58.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="52.5703125" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>73</v>
+      <c r="A1" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>12</v>
@@ -863,9 +962,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>74</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>17</v>
@@ -873,8 +972,8 @@
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>82</v>
+      <c r="D2" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>18</v>
@@ -891,17 +990,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD525D7-9059-4EE8-B3FA-BB0E2DF94E09}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="42.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -912,7 +1011,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>40</v>
@@ -932,7 +1031,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>41</v>
@@ -955,17 +1054,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D338FBF-5298-4299-A031-2B0136E7D8FA}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48" style="3" customWidth="1"/>
+    <col min="1" max="1" width="54.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="53.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.140625" style="3" customWidth="1"/>
@@ -977,7 +1076,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>22</v>
@@ -1000,7 +1099,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>28</v>
@@ -1027,17 +1126,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D6A92A-07CE-4785-8442-BF46C8948E9D}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.7109375" style="3" customWidth="1"/>
@@ -1053,7 +1152,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>37</v>
@@ -1100,7 +1199,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>30</v>
@@ -1130,7 +1229,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L2" s="5">
         <v>202</v>
@@ -1154,12 +1253,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E878CF-F25E-4DC2-A8A7-747F1234CDA1}">
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,7 +1275,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>12</v>
@@ -1200,10 +1299,10 @@
         <v>38</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>36</v>
@@ -1233,10 +1332,10 @@
         <v>47</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>48</v>
@@ -1250,7 +1349,7 @@
     </row>
     <row r="2" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>17</v>
@@ -1259,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>18</v>
@@ -1289,7 +1388,7 @@
         <v>9</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="O2" s="5">
         <v>202</v>
@@ -1331,11 +1430,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F23F45-BCD9-4A9E-8B1D-9E4DCE1A2FEA}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
@@ -1359,7 +1458,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1406,7 +1505,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
@@ -1415,10 +1514,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F2" s="5">
         <v>202</v>
@@ -1436,16 +1535,16 @@
         <v>58</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L2" s="6">
         <v>200</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="O2" t="s">
         <v>57</v>
@@ -1453,7 +1552,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -1462,10 +1561,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F3" s="5">
         <v>202</v>
@@ -1483,16 +1582,16 @@
         <v>58</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L3" s="6">
         <v>200</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="O3" t="s">
         <v>57</v>
@@ -1500,7 +1599,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -1509,10 +1608,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F4" s="5">
         <v>202</v>
@@ -1530,16 +1629,16 @@
         <v>58</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L4" s="6">
         <v>200</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="O4" t="s">
         <v>57</v>
@@ -1563,7 +1662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87034360-7EF6-46AF-B871-B93764E85F87}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1585,7 +1684,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1611,7 +1710,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>

--- a/src/test/java/IdentityServer_API_User/Data/IdentityServer_API_User.xlsx
+++ b/src/test/java/IdentityServer_API_User/Data/IdentityServer_API_User.xlsx
@@ -8,20 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APIAutomation\Automation_OMSAPI\src\test\java\IdentityServer_API_User\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655C5BBD-22A6-4B8B-9D8E-A3655C991AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E8E7EE-D568-4093-93A1-AD7AFA42C67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="685" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="634" activeTab="1" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="UserLogin" sheetId="2" r:id="rId1"/>
-    <sheet name="UserLoginNegativeCases" sheetId="10" r:id="rId2"/>
-    <sheet name="Forgot_Password" sheetId="3" r:id="rId3"/>
-    <sheet name="Forgot_Password_Resend" sheetId="6" r:id="rId4"/>
-    <sheet name="Forgot_Password_Verify" sheetId="4" r:id="rId5"/>
-    <sheet name="Forgot_Password_Confirm" sheetId="5" r:id="rId6"/>
-    <sheet name="UserProfile_ChangePassword" sheetId="8" r:id="rId7"/>
-    <sheet name="UserProfile_Detail" sheetId="9" r:id="rId8"/>
-    <sheet name="Dummy_UserProfile_UserLogin" sheetId="7" r:id="rId9"/>
+    <sheet name="Biometric" sheetId="15" r:id="rId2"/>
+    <sheet name="UserConnectToken" sheetId="11" r:id="rId3"/>
+    <sheet name="UserConnectTokenNegative" sheetId="12" r:id="rId4"/>
+    <sheet name="UserLoginNegativeCases" sheetId="10" r:id="rId5"/>
+    <sheet name="Forgot_Password" sheetId="13" r:id="rId6"/>
+    <sheet name="Forgot_Password_Resend" sheetId="6" r:id="rId7"/>
+    <sheet name="UserProfile_ChangePassword" sheetId="8" r:id="rId8"/>
+    <sheet name="UserProfile_Detail" sheetId="9" r:id="rId9"/>
+    <sheet name="Forgot_Password_BKP" sheetId="3" r:id="rId10"/>
+    <sheet name="Forgot_Password_Verify_BKP" sheetId="4" r:id="rId11"/>
+    <sheet name="Forgot_Password_Confirm_BKP" sheetId="5" r:id="rId12"/>
+    <sheet name="Dummy_UserProfile_UserLogin" sheetId="7" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="206">
   <si>
     <t>Content_Type</t>
   </si>
@@ -184,9 +188,6 @@
     <t>firstname001@mailinator.com</t>
   </si>
   <si>
-    <t>/int/is/api/userprofile/changepassword</t>
-  </si>
-  <si>
     <t>UserProfile_ChangePassword_BasePath</t>
   </si>
   <si>
@@ -229,9 +230,6 @@
     <t>UserProfile_Detail_TestCase</t>
   </si>
   <si>
-    <t>Verify_UserProfile_Detail_TC0001</t>
-  </si>
-  <si>
     <t>UserProfile_ChangePassword_TestCase</t>
   </si>
   <si>
@@ -263,12 +261,6 @@
   </si>
   <si>
     <t>Change_Confirm_NewPassword</t>
-  </si>
-  <si>
-    <t>Verify_UserProfile_Detail_TC0002</t>
-  </si>
-  <si>
-    <t>Verify_UserProfile_Detail_TC0003</t>
   </si>
   <si>
     <t>@Qatest27</t>
@@ -286,18 +278,12 @@
     <t>first002@mailinator.com</t>
   </si>
   <si>
-    <t>first002</t>
-  </si>
-  <si>
     <t>first004@mailinator.com</t>
   </si>
   <si>
     <t>first003@mailinator.com</t>
   </si>
   <si>
-    <t>first003</t>
-  </si>
-  <si>
     <t>first004</t>
   </si>
   <si>
@@ -307,12 +293,6 @@
     <t>Verify_UserLogin_TestCase_VTRAD-C516</t>
   </si>
   <si>
-    <t>@Qatest27123</t>
-  </si>
-  <si>
-    <t>api.automation12@mailinator.com</t>
-  </si>
-  <si>
     <t>Verify_Forgot_Password_Resend_TestCase_VTRAD-C417</t>
   </si>
   <si>
@@ -328,14 +308,404 @@
     <t>Verify_UserProfile_ChangePassword_TestCase_VTRAD-C1214</t>
   </si>
   <si>
-    <t>Verify_UserLogin_TestCase_Negative_VTRAD-C517</t>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>Base_Path_Login</t>
+  </si>
+  <si>
+    <t>{
+   "email": "api.automation@mailinator.com",
+    "password": "@Qatest2",
+    "captcha": ""
+}</t>
+  </si>
+  <si>
+    <t>/int/is/api/v3.1/login</t>
+  </si>
+  <si>
+    <t>/int/is/api/v3/login/tfa</t>
+  </si>
+  <si>
+    <t>Error_Response</t>
+  </si>
+  <si>
+    <t>{
+    "codeId": "{{codeId}}",
+    "tfaCode": "123456"
+}</t>
+  </si>
+  <si>
+    <t>Verify_UserLogin_TestCase_Negative_VTRAD-C517-A</t>
+  </si>
+  <si>
+    <t>Verify_UserLogin_TestCase_Negative_VTRAD-C517-B</t>
+  </si>
+  <si>
+    <t>Verify_UserLogin_TestCase_Negative_VTRAD-C517-C</t>
+  </si>
+  <si>
+    <t>Verify_UserLogin_TestCase_Negative_VTRAD-C517-D</t>
+  </si>
+  <si>
+    <t>{
+   "email": "api.invalid@mailinator.com",
+    "password": "@Qatest2",
+    "captcha": ""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "codeId": "{{codeId}}",
+    "tfaCode": "00225"
+}</t>
+  </si>
+  <si>
+    <t>Status_Code</t>
+  </si>
+  <si>
+    <t>{"success":false,"message":"Invalid email or password.","data":{"codeId":null,"loginCode":2}}</t>
+  </si>
+  <si>
+    <t>{"success":false,"message":"Invalid or expired tfa code.","data":"Invalid or expired tfa code."}</t>
+  </si>
+  <si>
+    <t>{"success":false,"message":"Invalid email or password.","data":{"codeId":null,"loginCode":1}}</t>
+  </si>
+  <si>
+    <t>ConnectTokenEndpoint_TestCases</t>
+  </si>
+  <si>
+    <t>basePath</t>
+  </si>
+  <si>
+    <t>grantType</t>
+  </si>
+  <si>
+    <t>clientId</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>contentType</t>
+  </si>
+  <si>
+    <t>expectedStatusCode</t>
+  </si>
+  <si>
+    <t>expectedResponse</t>
+  </si>
+  <si>
+    <t>/connect/token</t>
+  </si>
+  <si>
+    <t>abdulmoiz</t>
+  </si>
+  <si>
+    <t>application/x-www-form-urlencoded</t>
+  </si>
+  <si>
+    <t>Error_Message</t>
+  </si>
+  <si>
+    <t>invalid_client</t>
+  </si>
+  <si>
+    <t>Error_description</t>
+  </si>
+  <si>
+    <t>[access_token, expires_in, token_type, refresh_token, scope]</t>
+  </si>
+  <si>
+    <t>sarang</t>
+  </si>
+  <si>
+    <t>abdulmoiz2</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>invalid_request</t>
+  </si>
+  <si>
+    <t>Invalid Username/Password.</t>
+  </si>
+  <si>
+    <t>expectedResponseBody</t>
+  </si>
+  <si>
+    <t>{"error":"invalid_request","error_description":"Invalid Username/Password."}</t>
+  </si>
+  <si>
+    <t>abdulmoiz23</t>
+  </si>
+  <si>
+    <t>LSL12</t>
+  </si>
+  <si>
+    <t>password12</t>
+  </si>
+  <si>
+    <t>{"error":"invalid_client","error_description":null}</t>
+  </si>
+  <si>
+    <t>Verify_UserLogin_TestCase_VTRAD-C511-A</t>
+  </si>
+  <si>
+    <t>Verify_UserLogin_TestCase_VTRAD-C511-B</t>
+  </si>
+  <si>
+    <t>Verify_UserConnectToken_Login_Negative_TestCase_VTRAD-C510-A</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>Verify_UserConnectToken_Login_Negative_TestCase_VTRAD-C510-B</t>
+  </si>
+  <si>
+    <t>Verify_UserConnectToken_Login_Negative_TestCase_VTRAD-C509-A</t>
+  </si>
+  <si>
+    <t>Verify_UserConnectToken_Login_Negative_TestCase_VTRAD-C509-B</t>
+  </si>
+  <si>
+    <t>Verify_UserConnectToken_Login_Negative_TestCase_VTRAD-C509-C</t>
+  </si>
+  <si>
+    <t>Verify_UserConnectToken_Login_Negative_TestCase_VTRAD-C509-D</t>
+  </si>
+  <si>
+    <t>Verify_UserLogin_TestCase_VTRAD-C508</t>
+  </si>
+  <si>
+    <t>Verify_UserLogin_TestCase_VTRAD-C507</t>
+  </si>
+  <si>
+    <t>Verify_Forgot_Password_TestCase_VTRAD-C413</t>
+  </si>
+  <si>
+    <t>Verify_Forgot_Password_TestCase_VTRAD-C415</t>
+  </si>
+  <si>
+    <t>{
+    "captcha": null,
+    "email": "first002@mailinator.com"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "captcha": null,
+    "email": "first003@mailinator.com"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "captcha": null,
+    "email": "invalid@mailinator.com"
+}</t>
+  </si>
+  <si>
+    <t>No user found.</t>
+  </si>
+  <si>
+    <t>Invalid or expired forgot password code.</t>
+  </si>
+  <si>
+    <t>invalid@mailinator.com</t>
+  </si>
+  <si>
+    <t>Verify_Forgot_Password_Negative_TestCase_VTRAD-C412</t>
+  </si>
+  <si>
+    <t>/int/is/api/v3/login/forgotpassword</t>
+  </si>
+  <si>
+    <t>Invalid email or password.</t>
+  </si>
+  <si>
+    <t>Invalid or expired tfa code.</t>
+  </si>
+  <si>
+    <t>Step1_Response_message</t>
+  </si>
+  <si>
+    <t>Step2_Response_message</t>
+  </si>
+  <si>
+    <t>Proceed with TFA to complete the login</t>
+  </si>
+  <si>
+    <t>12345625</t>
+  </si>
+  <si>
+    <t>123456365</t>
+  </si>
+  <si>
+    <t>Verify_Forgot_Password_Negative_TestCase_VTRAD-C416-A</t>
+  </si>
+  <si>
+    <t>Verify_Forgot_Password_Negative_TestCase_VTRAD-C414-A</t>
+  </si>
+  <si>
+    <t>Response_codeID_field</t>
+  </si>
+  <si>
+    <t>codeId</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>123456336</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 400 Bad Request</t>
+  </si>
+  <si>
+    <t>Invalid or expired forgot request.</t>
+  </si>
+  <si>
+    <t>Verify_Forgot_Password_TestCase_VTRAD-C419</t>
+  </si>
+  <si>
+    <t>Verify_Forgot_Password_Resend_Negative_TestCase_VTRAD-C418</t>
+  </si>
+  <si>
+    <t>Verify_Forgot_Password_Resend_TestCase_VTRAD-C419-B</t>
+  </si>
+  <si>
+    <t>Verify_UserProfile_ChangePassword_Negative_TestCase_VTRAD-C504</t>
+  </si>
+  <si>
+    <t>@First123</t>
+  </si>
+  <si>
+    <t>Verify_Forgot_Password_Resend_Negative_TestCase_VTRAD-C514</t>
+  </si>
+  <si>
+    <t>/int/is/api/v3/login/tfa/resend</t>
+  </si>
+  <si>
+    <t>{"ConfirmNewPassword":["'ConfirmNewPassword' and 'NewPassword' do not match."]}</t>
+  </si>
+  <si>
+    <t>/int/is/api/v3/userprofile/changepassword</t>
+  </si>
+  <si>
+    <t>first005</t>
+  </si>
+  <si>
+    <t>first006</t>
+  </si>
+  <si>
+    <t>first005@mailinator.com</t>
+  </si>
+  <si>
+    <t>first006@mailinator.com</t>
+  </si>
+  <si>
+    <t>Verify_UserProfile_Detail_TestCase_VTRAD-C1251</t>
+  </si>
+  <si>
+    <t>Verify_UserProfile_Detail_TestCase_VTRAD-C1252-B</t>
+  </si>
+  <si>
+    <t>Verify_UserProfile_Detail_TestCase_VTRAD-C1252-A</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>UserProfile_Detail_StatusLine</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 401 Unauthorized</t>
+  </si>
+  <si>
+    <t>unsupported_grant_type</t>
+  </si>
+  <si>
+    <t>{"error":"unsupported_grant_type","error_description":null}</t>
+  </si>
+  <si>
+    <t>{
+    "captcha": null,
+    "email": "first011@mailinator.com"
+}</t>
+  </si>
+  <si>
+    <t>first011@mailinator.com</t>
+  </si>
+  <si>
+    <t>{
+   "email": "first010@mailinator.com",
+    "password": "first010",
+    "captcha": ""
+}</t>
+  </si>
+  <si>
+    <t>Verify_Forgot_Password_Resend_Negative_TestCase_VTRAD-C515</t>
+  </si>
+  <si>
+    <t>Verify_Forgot_Password_Resend_Negative_TestCase_VTRAD-C513</t>
+  </si>
+  <si>
+    <t>Invalid or expired tfa request.</t>
+  </si>
+  <si>
+    <t>/int/is/api/v3/login/tfa/</t>
+  </si>
+  <si>
+    <t>Endpoint_Version</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>[access_token, expires_in, token_type, refresh_token, scope, email, biometric_token, biometric_token_expiry, error, error_description]</t>
+  </si>
+  <si>
+    <t>Verify_UserLogin_With_Biometric_TestCase_VTRAD-C506</t>
+  </si>
+  <si>
+    <t>/int/is/api/v3/login/biometric</t>
+  </si>
+  <si>
+    <t>Base_Path_Biometric</t>
+  </si>
+  <si>
+    <t>Biometric_Response_message</t>
+  </si>
+  <si>
+    <t>expectedResponse_Biometric</t>
+  </si>
+  <si>
+    <t>Status_Code_Biometric</t>
+  </si>
+  <si>
+    <t>Verify_UserLogin_With_Biometric_Negative_TestCase_VTRAD-C505</t>
+  </si>
+  <si>
+    <t>@Qatest273</t>
+  </si>
+  <si>
+    <t>Invalid or expired token!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +748,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -415,7 +807,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -433,6 +825,35 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
@@ -750,81 +1171,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78880E81-82BD-4163-961D-241DBB86F223}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="72.5703125" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="57" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="72.5703125" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.28515625" customWidth="1"/>
+    <col min="13" max="13" width="56.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>75</v>
+      <c r="D2" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>202</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="5">
+      <c r="K2" s="5">
         <v>200</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -832,116 +1280,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C929527-ABF2-422A-A89C-7CE3CB8A5982}">
-  <dimension ref="A1:I2"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBBBA57-3186-41A2-9D8F-17C18B5A2950}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="72.5703125" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
-        <v>400</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="5">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{133A9785-AB89-42FA-A16A-C161F785BFFC}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBBBA57-3186-41A2-9D8F-17C18B5A2950}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="58.140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="52.5703125" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="58.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="52.5703125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>68</v>
+      <c r="A1" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>12</v>
@@ -963,8 +1324,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>91</v>
+      <c r="A2" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>17</v>
@@ -973,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>18</v>
@@ -990,76 +1351,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD525D7-9059-4EE8-B3FA-BB0E2DF94E09}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="53.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="52.5703125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D338FBF-5298-4299-A031-2B0136E7D8FA}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,7 +1373,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>22</v>
@@ -1099,7 +1396,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>28</v>
@@ -1126,12 +1423,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D6A92A-07CE-4785-8442-BF46C8948E9D}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,14 +1442,16 @@
     <col min="7" max="7" width="42.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="42.85546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="52.5703125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="3"/>
+    <col min="10" max="10" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="12" max="14" width="9.140625" style="3"/>
+    <col min="15" max="15" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>37</v>
@@ -1199,7 +1498,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>30</v>
@@ -1229,7 +1528,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L2" s="5">
         <v>202</v>
@@ -1253,416 +1552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E878CF-F25E-4DC2-A8A7-747F1234CDA1}">
-  <dimension ref="A1:X2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="18" width="56.140625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="53.85546875" style="3" customWidth="1"/>
-    <col min="20" max="20" width="32.28515625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="30" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="42.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="42.85546875" style="3" customWidth="1"/>
-    <col min="24" max="24" width="52.5703125" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="5">
-        <v>202</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="5">
-        <v>200</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" xr:uid="{9AFC3EC1-A5CC-42E5-9928-0739F0AE7945}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F23F45-BCD9-4A9E-8B1D-9E4DCE1A2FEA}">
-  <dimension ref="A1:O4"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="43.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.42578125" customWidth="1"/>
-    <col min="11" max="11" width="36.5703125" customWidth="1"/>
-    <col min="12" max="12" width="42.140625" customWidth="1"/>
-    <col min="13" max="13" width="33.85546875" customWidth="1"/>
-    <col min="14" max="14" width="43.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="5">
-        <v>202</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="5">
-        <v>200</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" s="6">
-        <v>200</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="5">
-        <v>202</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="5">
-        <v>200</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" s="6">
-        <v>200</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="5">
-        <v>202</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="5">
-        <v>200</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="6">
-        <v>200</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="O4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{0D480D47-B8BA-4B11-B758-4BACACEE85E7}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{4E3FE0B9-5FAC-462D-93CA-F3456366E8EB}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{DAAC0C99-B76B-4D5E-A073-008767C5B54D}"/>
-    <hyperlink ref="K2" r:id="rId4" xr:uid="{DC439312-72E1-4F21-AEDC-4931F4779D93}"/>
-    <hyperlink ref="K3" r:id="rId5" xr:uid="{1CE64D50-3688-46D7-994D-1FC7B5D52720}"/>
-    <hyperlink ref="K4" r:id="rId6" xr:uid="{C2B3366D-805E-43DC-A116-3D94480DAF18}"/>
-    <hyperlink ref="M2" r:id="rId7" xr:uid="{C4D731CA-A65B-4978-9A44-0EB813043F8F}"/>
-    <hyperlink ref="M3" r:id="rId8" xr:uid="{B06DCC2D-40E7-424B-A4EA-5D4CC40284E9}"/>
-    <hyperlink ref="M4" r:id="rId9" xr:uid="{129BDB6A-1FCE-4B35-9B9A-9595716207AD}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87034360-7EF6-46AF-B871-B93764E85F87}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1684,7 +1574,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1710,7 +1600,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
@@ -1741,4 +1631,2488 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9BF79D-328A-4FAB-9CFA-EF9C61E66EB0}">
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="57" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="72.5703125" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.28515625" customWidth="1"/>
+    <col min="13" max="13" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.5703125" customWidth="1"/>
+    <col min="16" max="16" width="125.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>202</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="5">
+        <v>200</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N2" s="5">
+        <v>200</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>400</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="5">
+        <v>400</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N3" s="5">
+        <v>200</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E59903-D3DE-4495-ADAB-0A40401663C8}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="72.5703125" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="60.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8233E2C8-E70A-41C5-8A28-B72392E4A0AE}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="71.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="72.5703125" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="34.5703125" customWidth="1"/>
+    <col min="11" max="11" width="72.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C929527-ABF2-422A-A89C-7CE3CB8A5982}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="55" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="29" style="13" customWidth="1"/>
+    <col min="6" max="6" width="97.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <v>200</v>
+      </c>
+      <c r="F4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
+        <v>200</v>
+      </c>
+      <c r="F5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="api.automation12@mailinator.com" xr:uid="{133A9785-AB89-42FA-A16A-C161F785BFFC}"/>
+    <hyperlink ref="C4" r:id="rId2" display="api.automation12@mailinator.com" xr:uid="{C17DC982-7F98-4965-9F06-307FF2C74F26}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D10C16A-C064-4EFC-92F5-D3C3787E8AD1}">
+  <dimension ref="A1:AB8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.140625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="42.85546875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="52.5703125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="40" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="43.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="36.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB1" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" s="23">
+        <v>202</v>
+      </c>
+      <c r="X2" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA2" s="23">
+        <v>200</v>
+      </c>
+      <c r="AB2" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" s="23">
+        <v>202</v>
+      </c>
+      <c r="X3" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="23">
+        <v>200</v>
+      </c>
+      <c r="AB3" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="W4" s="23">
+        <v>202</v>
+      </c>
+      <c r="X4" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA4" s="23">
+        <v>200</v>
+      </c>
+      <c r="AB4" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="U5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="W5" s="23">
+        <v>400</v>
+      </c>
+      <c r="X5" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y5" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA5" s="23">
+        <v>400</v>
+      </c>
+      <c r="AB5" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="U6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="W6" s="23">
+        <v>400</v>
+      </c>
+      <c r="X6" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA6" s="23">
+        <v>400</v>
+      </c>
+      <c r="AB6" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="U7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="W7" s="23">
+        <v>400</v>
+      </c>
+      <c r="X7" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA7" s="23">
+        <v>400</v>
+      </c>
+      <c r="AB7" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="W8" s="27">
+        <v>202</v>
+      </c>
+      <c r="X8" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y8" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA8" s="27">
+        <v>200</v>
+      </c>
+      <c r="AB8" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="V2" r:id="rId1" xr:uid="{8480448B-2D57-46E6-ACDE-423CDF1F2B69}"/>
+    <hyperlink ref="V3" r:id="rId2" xr:uid="{1CDAF4C7-65F2-4C0A-B8E4-FE5487DCAE16}"/>
+    <hyperlink ref="V4" r:id="rId3" xr:uid="{A85EFED1-B678-464E-9A2B-A28078F947D2}"/>
+    <hyperlink ref="V5" r:id="rId4" xr:uid="{1ED539FD-90AA-472B-B045-5F3A953FF223}"/>
+    <hyperlink ref="V6" r:id="rId5" xr:uid="{F501120B-1221-493F-9272-8863A0353EBE}"/>
+    <hyperlink ref="V7" r:id="rId6" xr:uid="{9378572E-6C51-4A4A-A27F-6762DBD4C67A}"/>
+    <hyperlink ref="V8" r:id="rId7" xr:uid="{A08ED146-5463-40BF-A257-899CC03B54A0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD525D7-9059-4EE8-B3FA-BB0E2DF94E09}">
+  <dimension ref="A1:S7"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="53.28515625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="53.85546875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="42.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.85546875" style="29" customWidth="1"/>
+    <col min="12" max="12" width="52.5703125" style="29" customWidth="1"/>
+    <col min="13" max="13" width="38.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="43.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E878CF-F25E-4DC2-A8A7-747F1234CDA1}">
+  <dimension ref="A1:Z3"/>
+  <sheetViews>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="X34" sqref="X34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="20" width="56.140625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="53.85546875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="32.28515625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="30" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="39.140625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="38.7109375" style="3" customWidth="1"/>
+    <col min="26" max="26" width="59.7109375" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="5">
+        <v>202</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="5">
+        <v>200</v>
+      </c>
+      <c r="T2" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="5">
+        <v>202</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="5">
+        <v>200</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{9AFC3EC1-A5CC-42E5-9928-0739F0AE7945}"/>
+    <hyperlink ref="N3" r:id="rId2" xr:uid="{E3908C51-432E-4220-9024-2059C8C545DF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F23F45-BCD9-4A9E-8B1D-9E4DCE1A2FEA}">
+  <dimension ref="A1:R4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.42578125" customWidth="1"/>
+    <col min="13" max="13" width="36.5703125" customWidth="1"/>
+    <col min="14" max="15" width="42.140625" customWidth="1"/>
+    <col min="16" max="16" width="33.85546875" customWidth="1"/>
+    <col min="17" max="17" width="43.7109375" customWidth="1"/>
+    <col min="18" max="18" width="32.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="5">
+        <v>400</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5">
+        <v>400</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="R2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="5">
+        <v>400</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="5">
+        <v>400</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="R3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="5">
+        <v>202</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="5">
+        <v>200</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="6">
+        <v>200</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{6EBC0797-F769-4AAE-9DC7-06A0E37A0757}"/>
+    <hyperlink ref="D2:D3" r:id="rId2" display="first004@mailinator.com" xr:uid="{0CEBB70C-0565-45C5-9813-18EA3379595F}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{698D7442-8650-4680-A3A0-1BEFEB7DA40C}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{19D99CBF-712A-487C-947B-0249B698ADBF}"/>
+    <hyperlink ref="M4" r:id="rId5" xr:uid="{E71DD803-FD4B-450E-85E8-B8F460B5F7B2}"/>
+    <hyperlink ref="M2:M3" r:id="rId6" display="first004@mailinator.com" xr:uid="{A759B1E3-2CC9-4C87-A40F-A9457CA5B066}"/>
+    <hyperlink ref="M2" r:id="rId7" xr:uid="{9BFDA699-9C00-44D1-AE9C-940BA5D5E0F1}"/>
+    <hyperlink ref="M3" r:id="rId8" xr:uid="{A718E3B0-D6D9-475F-88AE-D2E9AC12F7A0}"/>
+    <hyperlink ref="P4" r:id="rId9" xr:uid="{B3DE8106-54A0-4B9E-A4B1-6D3F5949F84F}"/>
+    <hyperlink ref="P2:P3" r:id="rId10" display="first004@mailinator.com" xr:uid="{6218B62C-1BB5-4C93-B074-9E554DA54394}"/>
+    <hyperlink ref="P2" r:id="rId11" xr:uid="{73FE395D-917A-4378-AB7A-233ADFDB4AC4}"/>
+    <hyperlink ref="P3" r:id="rId12" xr:uid="{0277BD39-F6EA-41E3-B716-FB24661AD865}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
+</worksheet>
 </file>